--- a/GEV_Model.xlsx
+++ b/GEV_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Equity Research\Models\Industrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD27443-B774-4C49-B2EC-D36C921349AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B7FF93-7AC0-4A6D-8FCE-D04D0BA72AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1905,9 +1905,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -2369,10 +2369,10 @@
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2397,10 +2397,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2410,14 +2410,14 @@
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -10361,20 +10361,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15">
+    <row r="2" spans="2:18" ht="13.9">
       <c r="B2" s="2" t="s">
         <v>132</v>
       </c>
@@ -10383,7 +10383,7 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="73">
         <v>552.5</v>
       </c>
       <c r="D3" s="42" t="s">
@@ -10405,7 +10405,7 @@
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <f>C3*C4</f>
         <v>149904.29999999999</v>
       </c>
@@ -10414,7 +10414,7 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <v>7945</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -10425,7 +10425,7 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10436,17 +10436,17 @@
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <f>C5-C6+C7</f>
         <v>141959.29999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="15">
+    <row r="10" spans="2:18" ht="13.9">
       <c r="B10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="15">
+    <row r="12" spans="2:18" ht="13.9">
       <c r="B12" s="1" t="s">
         <v>142</v>
       </c>
@@ -10570,7 +10570,7 @@
     <row r="21" spans="1:17">
       <c r="Q21" s="44"/>
     </row>
-    <row r="22" spans="1:17" ht="15">
+    <row r="22" spans="1:17" ht="13.9">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" ht="13.9">
       <c r="A40" s="2" t="s">
         <v>105</v>
       </c>
@@ -10680,25 +10680,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:CM91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="1"/>
-    <col min="14" max="18" width="9.140625" style="35"/>
-    <col min="19" max="27" width="9.140625" style="1"/>
-    <col min="28" max="90" width="9.140625" style="35"/>
-    <col min="91" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.3984375" style="1" customWidth="1"/>
+    <col min="3" max="13" width="9.1328125" style="1"/>
+    <col min="14" max="18" width="9.1328125" style="35"/>
+    <col min="19" max="27" width="9.1328125" style="1"/>
+    <col min="28" max="90" width="9.1328125" style="35"/>
+    <col min="91" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:91" ht="15">
+    <row r="1" spans="2:91" ht="13.9">
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:91" ht="15">
+    <row r="3" spans="2:91" ht="13.9">
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>41749.878430125318</v>
       </c>
     </row>
-    <row r="6" spans="2:91" s="2" customFormat="1" ht="15">
+    <row r="6" spans="2:91" s="2" customFormat="1" ht="13.9">
       <c r="B6" s="33" t="s">
         <v>63</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:91" s="2" customFormat="1" ht="15">
+    <row r="10" spans="2:91" s="2" customFormat="1" ht="13.9">
       <c r="B10" s="33" t="s">
         <v>116</v>
       </c>
@@ -11693,7 +11693,7 @@
       <c r="AK11" s="65"/>
       <c r="AL11" s="65"/>
     </row>
-    <row r="12" spans="2:91" ht="15">
+    <row r="12" spans="2:91" ht="13.9">
       <c r="B12" s="33" t="s">
         <v>584</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>0.55121361324158324</v>
       </c>
     </row>
-    <row r="13" spans="2:91" ht="15">
+    <row r="13" spans="2:91" ht="13.9">
       <c r="B13" s="33" t="s">
         <v>585</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>41749.878430125318</v>
       </c>
     </row>
-    <row r="17" spans="2:90" s="2" customFormat="1" ht="15">
+    <row r="17" spans="2:90" s="2" customFormat="1" ht="13.9">
       <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>4606.0430912515676</v>
       </c>
     </row>
-    <row r="30" spans="2:90" s="2" customFormat="1" ht="15">
+    <row r="30" spans="2:90" s="2" customFormat="1" ht="13.9">
       <c r="B30" s="2" t="s">
         <v>80</v>
       </c>
@@ -15500,11 +15500,11 @@
       <c r="AG57" s="53"/>
       <c r="AH57" s="53"/>
       <c r="AI57" s="53"/>
-      <c r="AJ57" s="72" t="str" cm="1">
+      <c r="AJ57" s="74" t="str" cm="1">
         <f t="array" ref="AJ57">_xlfn.IFS(AK56&gt;=25%,"Strong Buy",AK56&gt;=10.00001%,"Buy",AND(AK56&lt;=10%,AK56&gt;=-4.9999%),"Hold",AND(AK56&lt;=-5%,AK56&gt;=-14.999999%),"Sell",AK56&lt;=-15%,"Strong Sell")</f>
         <v>Hold</v>
       </c>
-      <c r="AK57" s="72"/>
+      <c r="AK57" s="74"/>
     </row>
     <row r="58" spans="2:90" ht="14.25" customHeight="1">
       <c r="B58" s="1" t="s">
@@ -16864,13 +16864,13 @@
       <selection activeCell="Z158" sqref="Z158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="7" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="1" customWidth="1"/>
-    <col min="9" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="2.85546875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="3.1328125" style="1" customWidth="1"/>
+    <col min="9" max="28" width="9.1328125" style="1"/>
+    <col min="29" max="29" width="2.86328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:79">
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="8:79" ht="15">
+    <row r="2" spans="8:79" ht="13.9">
       <c r="H2" s="2" t="s">
         <v>107</v>
       </c>
@@ -16904,12 +16904,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="8:30" ht="15">
+    <row r="33" spans="8:30" ht="13.9">
       <c r="AD33" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="34" spans="8:30" ht="15">
+    <row r="34" spans="8:30" ht="13.9">
       <c r="H34" s="2" t="s">
         <v>111</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="8:30" ht="15">
+    <row r="67" spans="8:30" ht="13.9">
       <c r="H67" s="2" t="s">
         <v>586</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="8:30" ht="15">
+    <row r="103" spans="8:30" ht="13.9">
       <c r="H103" s="2" t="s">
         <v>110</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="8:30" ht="15">
+    <row r="136" spans="8:30" ht="13.9">
       <c r="H136" s="2" t="s">
         <v>109</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" ht="13.9">
       <c r="A183" s="1" t="s">
         <v>540</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>2.156133828996154E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15">
+    <row r="202" spans="1:17" ht="13.9">
       <c r="A202" s="58">
         <v>622.39</v>
       </c>
@@ -17515,7 +17515,7 @@
       </c>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="1:17" ht="15">
+    <row r="203" spans="1:17" ht="13.9">
       <c r="A203" s="58">
         <v>625.91</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15">
+    <row r="204" spans="1:17" ht="13.9">
       <c r="A204" s="58">
         <v>602.30999999999995</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>-1.4803362007993481E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" ht="13.9">
       <c r="A206" s="58">
         <v>606</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15" thickBot="1">
+    <row r="207" spans="1:17" ht="13.9" thickBot="1">
       <c r="A207" s="58">
         <v>604.59</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="15">
+    <row r="209" spans="1:17" ht="14.25">
       <c r="A209" s="58">
         <v>625.02</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="15">
+    <row r="210" spans="1:17" ht="14.25">
       <c r="A210" s="58">
         <v>621.91</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="15">
+    <row r="211" spans="1:17" ht="14.25">
       <c r="A211" s="58">
         <v>625.27</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:17" ht="15">
+    <row r="212" spans="1:17" ht="14.25">
       <c r="A212" s="58">
         <v>634.30999999999995</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="15">
+    <row r="213" spans="1:17" ht="14.25">
       <c r="A213" s="58">
         <v>657.44</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="15">
+    <row r="214" spans="1:17" ht="14.25">
       <c r="A214" s="58">
         <v>650.76</v>
       </c>
@@ -17996,7 +17996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="15">
+    <row r="215" spans="1:17" ht="14.25">
       <c r="A215" s="58">
         <v>649.09</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="15">
+    <row r="216" spans="1:17" ht="14.25">
       <c r="A216" s="58">
         <v>645.86</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="15">
+    <row r="217" spans="1:17" ht="14.25">
       <c r="A217" s="58">
         <v>664.55</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="15">
+    <row r="219" spans="1:17" ht="14.25">
       <c r="A219" s="58">
         <v>662.77</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="15">
+    <row r="220" spans="1:17" ht="14.25">
       <c r="A220" s="58">
         <v>656.5</v>
       </c>
@@ -18275,7 +18275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="15">
+    <row r="221" spans="1:17" ht="14.25">
       <c r="A221" s="58">
         <v>660.29</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="15">
+    <row r="222" spans="1:17" ht="14.25">
       <c r="A222" s="58">
         <v>655</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:17" ht="15">
+    <row r="223" spans="1:17" ht="14.25">
       <c r="A223" s="58">
         <v>632.66999999999996</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>0.26877852020333309</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="15">
+    <row r="224" spans="1:17" ht="14.25">
       <c r="A224" s="58">
         <v>647.66</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>0.29594067665954826</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15">
+    <row r="225" spans="1:13" ht="14.25">
       <c r="A225" s="58">
         <v>644.59</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>0.32545966126641712</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15">
+    <row r="226" spans="1:13" ht="14.25">
       <c r="A226" s="58">
         <v>623.97</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>0.357496731416034</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15">
+    <row r="227" spans="1:13" ht="14.25">
       <c r="A227" s="58">
         <v>629.03</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>0.39221968306719862</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15">
+    <row r="228" spans="1:13" ht="14.25">
       <c r="A228" s="58">
         <v>548.99</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>0.42980265619401842</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15">
+    <row r="229" spans="1:13" ht="14.25">
       <c r="A229" s="58">
         <v>565.91</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>0.47042588164095156</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15">
+    <row r="230" spans="1:13" ht="14.25">
       <c r="A230" s="58">
         <v>574.6</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>0.51427536559103171</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15">
+    <row r="231" spans="1:13" ht="14.25">
       <c r="A231" s="58">
         <v>570.16999999999996</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>0.56154250803269223</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15">
+    <row r="232" spans="1:13" ht="14.25">
       <c r="A232" s="58">
         <v>561.16999999999996</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>0.61242365184241709</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15">
+    <row r="233" spans="1:13" ht="14.25">
       <c r="A233" s="58">
         <v>559.61</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>0.66711955938785805</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15">
+    <row r="234" spans="1:13" ht="14.25">
       <c r="A234" s="58">
         <v>555.04</v>
       </c>
@@ -18825,7 +18825,7 @@
         <v>0.72583481390102655</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15">
+    <row r="235" spans="1:13" ht="14.25">
       <c r="A235" s="58">
         <v>539.16</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>0.78877714327521653</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15">
+    <row r="236" spans="1:13" ht="14.25">
       <c r="A236" s="58">
         <v>539.36</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>0.85615666440323424</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15">
+    <row r="237" spans="1:13" ht="14.25">
       <c r="A237" s="58">
         <v>535.77</v>
       </c>
@@ -18939,7 +18939,7 @@
         <v>0.92818504669856561</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15">
+    <row r="238" spans="1:13" ht="14.25">
       <c r="A238" s="58">
         <v>530</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>1.0050745940247316</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15">
+    <row r="239" spans="1:13" ht="14.25">
       <c r="A239" s="58">
         <v>530.28</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>1.0870372448999366</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15">
+    <row r="240" spans="1:13" ht="14.25">
       <c r="A240" s="58">
         <v>517.04</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>1.1742834915421416</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15">
+    <row r="241" spans="1:13" ht="14.25">
       <c r="A241" s="58">
         <v>505.07</v>
       </c>
@@ -19091,7 +19091,7 @@
         <v>1.2670212190706713</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15">
+    <row r="242" spans="1:13" ht="14.25">
       <c r="A242" s="58">
         <v>506</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>1.3654544669807143</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15">
+    <row r="243" spans="1:13" ht="14.25">
       <c r="A243" s="58">
         <v>529.15</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>1.4697821158514481</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15">
+    <row r="244" spans="1:13" ht="14.25">
       <c r="A244" s="58">
         <v>519.66</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>1.5801965031313616</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15">
+    <row r="245" spans="1:13" ht="14.25">
       <c r="A245" s="58">
         <v>506.81</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>1.6968819727588755</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15">
+    <row r="246" spans="1:13" ht="14.25">
       <c r="A246" s="58">
         <v>502.67</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>1.8200133643147915</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15">
+    <row r="247" spans="1:13" ht="14.25">
       <c r="A247" s="58">
         <v>510.84</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>1.9497544483569276</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15">
+    <row r="248" spans="1:13" ht="14.25">
       <c r="A248" s="58">
         <v>499.88</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>2.086256315547101</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15">
+    <row r="249" spans="1:13" ht="14.25">
       <c r="A249" s="58">
         <v>486.96</v>
       </c>
@@ -19395,7 +19395,7 @@
         <v>2.2296557281361262</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15">
+    <row r="250" spans="1:13" ht="14.25">
       <c r="A250" s="58">
         <v>490.19</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>2.3800734433128432</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15">
+    <row r="251" spans="1:13" ht="14.25">
       <c r="A251" s="58">
         <v>488.66</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>2.5376125188368337</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15">
+    <row r="252" spans="1:13" ht="14.25">
       <c r="A252" s="58">
         <v>487.88</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>2.7023566122494564</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15">
+    <row r="253" spans="1:13" ht="14.25">
       <c r="A253" s="58">
         <v>478.45</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>2.8743682857817219</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15">
+    <row r="254" spans="1:13" ht="14.25">
       <c r="A254" s="58">
         <v>487.67</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>3.0536873298377292</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15">
+    <row r="255" spans="1:13" ht="14.25">
       <c r="A255" s="58">
         <v>483.47</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>3.2403291186163687</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15">
+    <row r="256" spans="1:13" ht="14.25">
       <c r="A256" s="58">
         <v>465.31</v>
       </c>
@@ -19661,7 +19661,7 @@
         <v>3.4342830120289372</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15">
+    <row r="257" spans="1:13" ht="14.25">
       <c r="A257" s="58">
         <v>480</v>
       </c>
@@ -19699,7 +19699,7 @@
         <v>3.6355108185643012</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15">
+    <row r="258" spans="1:13" ht="14.25">
       <c r="A258" s="58">
         <v>485</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>3.8439453341340659</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15">
+    <row r="259" spans="1:13" ht="14.25">
       <c r="A259" s="58">
         <v>484.31</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>4.0594889721870278</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15">
+    <row r="260" spans="1:13" ht="14.25">
       <c r="A260" s="58">
         <v>488.13</v>
       </c>
@@ -19813,7 +19813,7 @@
         <v>4.2820125005044067</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15">
+    <row r="261" spans="1:13" ht="14.25">
       <c r="A261" s="58">
         <v>492.97</v>
       </c>
@@ -19851,7 +19851,7 @@
         <v>4.5113539000659104</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15">
+    <row r="262" spans="1:13" ht="14.25">
       <c r="A262" s="58">
         <v>485.16</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>4.7473173612032005</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15">
+    <row r="263" spans="1:13" ht="14.25">
       <c r="A263" s="58">
         <v>472.98</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>4.9896724319254551</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15">
+    <row r="264" spans="1:13" ht="14.25">
       <c r="A264" s="58">
         <v>471.17</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>5.2381533328059842</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15">
+    <row r="265" spans="1:13" ht="14.25">
       <c r="A265" s="58">
         <v>485.01</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>5.4924584521560957</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15">
+    <row r="266" spans="1:13" ht="14.25">
       <c r="A266" s="58">
         <v>471.51</v>
       </c>
@@ -20041,7 +20041,7 @@
         <v>5.7522500343809222</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15">
+    <row r="267" spans="1:13" ht="14.25">
       <c r="A267" s="58">
         <v>464.39</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>6.0171540734122368</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15">
+    <row r="268" spans="1:13" ht="14.25">
       <c r="A268" s="58">
         <v>458.82</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>6.2867604219477213</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15">
+    <row r="269" spans="1:13" ht="14.25">
       <c r="A269" s="58">
         <v>453.03</v>
       </c>
@@ -20155,7 +20155,7 @@
         <v>6.5606231258996504</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15">
+    <row r="270" spans="1:13" ht="14.25">
       <c r="A270" s="58">
         <v>450.04</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>6.8382609919749617</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15">
+    <row r="271" spans="1:13" ht="14.25">
       <c r="A271" s="58">
         <v>446.6</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>7.1191583946825752</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15">
+    <row r="272" spans="1:13" ht="14.25">
       <c r="A272" s="58">
         <v>428.06</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>7.4027663273035254</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15">
+    <row r="273" spans="1:13" ht="14.25">
       <c r="A273" s="58">
         <v>426.97</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>7.6885036994786171</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15">
+    <row r="274" spans="1:13" ht="14.25">
       <c r="A274" s="58">
         <v>432.84</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>7.9757588820818697</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15">
+    <row r="275" spans="1:13" ht="14.25">
       <c r="A275" s="58">
         <v>433.33</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>8.263891497973896</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15">
+    <row r="276" spans="1:13" ht="14.25">
       <c r="A276" s="58">
         <v>416.63</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>8.5522344550859604</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15">
+    <row r="277" spans="1:13" ht="14.25">
       <c r="A277" s="58">
         <v>399.26</v>
       </c>
@@ -20459,7 +20459,7 @@
         <v>8.8400962160941283</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15">
+    <row r="278" spans="1:13" ht="14.25">
       <c r="A278" s="58">
         <v>394</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>9.1267632967252457</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15">
+    <row r="279" spans="1:13" ht="14.25">
       <c r="A279" s="58">
         <v>406.81</v>
       </c>
@@ -20535,7 +20535,7 @@
         <v>9.4115029825159571</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15">
+    <row r="280" spans="1:13" ht="14.25">
       <c r="A280" s="58">
         <v>401.23</v>
       </c>
@@ -20573,7 +20573,7 @@
         <v>9.6935662516465726</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15">
+    <row r="281" spans="1:13" ht="14.25">
       <c r="A281" s="58">
         <v>401.1</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>9.972190889317984</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15">
+    <row r="282" spans="1:13" ht="14.25">
       <c r="A282" s="58">
         <v>396.32</v>
       </c>
@@ -20649,7 +20649,7 @@
         <v>10.246604777057085</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15">
+    <row r="283" spans="1:13" ht="14.25">
       <c r="A283" s="58">
         <v>382.29</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>10.516029338348908</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15">
+    <row r="284" spans="1:13" ht="14.25">
       <c r="A284" s="58">
         <v>370.82</v>
       </c>
@@ -20725,7 +20725,7 @@
         <v>10.779683120126862</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15">
+    <row r="285" spans="1:13" ht="14.25">
       <c r="A285" s="58">
         <v>371.19</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>11.036785487929368</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15">
+    <row r="286" spans="1:13" ht="14.25">
       <c r="A286" s="58">
         <v>370.06</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>11.286560410975092</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15">
+    <row r="287" spans="1:13" ht="14.25">
       <c r="A287" s="58">
         <v>372.42</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>11.528240312040804</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15">
+    <row r="288" spans="1:13" ht="14.25">
       <c r="A288" s="58">
         <v>360.49</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>11.761069955865604</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15">
+    <row r="289" spans="1:13" ht="14.25">
       <c r="A289" s="58">
         <v>336.09</v>
       </c>
@@ -20915,7 +20915,7 @@
         <v>11.984310348870368</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15">
+    <row r="290" spans="1:13" ht="14.25">
       <c r="A290" s="58">
         <v>326.07</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>12.197242622287078</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15">
+    <row r="291" spans="1:13" ht="14.25">
       <c r="A291" s="58">
         <v>313.08</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>12.39917187035231</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15">
+    <row r="292" spans="1:13" ht="14.25">
       <c r="A292" s="58">
         <v>323.55</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>12.589430915042165</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15">
+    <row r="293" spans="1:13" ht="14.25">
       <c r="A293" s="58">
         <v>327.91000000000014</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>12.767383968919738</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15">
+    <row r="294" spans="1:13" ht="14.25">
       <c r="A294" s="58">
         <v>328.30969527059983</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>12.932430168034792</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15">
+    <row r="295" spans="1:13" ht="14.25">
       <c r="A295" s="58">
         <v>322.0544642857144</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>13.084006947459088</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15">
+    <row r="296" spans="1:13" ht="14.25">
       <c r="A296" s="58">
         <v>321.18512707216007</v>
       </c>
@@ -21181,7 +21181,7 @@
         <v>13.221593232957506</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15">
+    <row r="297" spans="1:13" ht="14.25">
       <c r="A297" s="58">
         <v>309.71387280594843</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>13.3447124234788</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15">
+    <row r="298" spans="1:13" ht="14.25">
       <c r="A298" s="58">
         <v>326.5610284617261</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>13.452935140591308</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15">
+    <row r="299" spans="1:13" ht="14.25">
       <c r="A299" s="58">
         <v>286.67144045587526</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>13.545881722675754</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15">
+    <row r="300" spans="1:13" ht="14.25">
       <c r="A300" s="58">
         <v>285.85206515114589</v>
       </c>
@@ -21333,7 +21333,7 @@
         <v>13.623224443604377</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15">
+    <row r="301" spans="1:13" ht="14.25">
       <c r="A301" s="58">
         <v>271.27318015602157</v>
       </c>
@@ -21370,7 +21370,7 @@
         <v>13.684689437764181</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15">
+    <row r="302" spans="1:13" ht="14.25">
       <c r="A302" s="58">
         <v>297.43323561677244</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>13.730058315601317</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15">
+    <row r="303" spans="1:13" ht="14.25">
       <c r="A303" s="58">
         <v>330.54798878595824</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>13.759169456350143</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15">
+    <row r="304" spans="1:13" ht="14.25">
       <c r="A304" s="58">
         <v>315.39953803022928</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>13.771918967238275</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15">
+    <row r="305" spans="1:13" ht="14.25">
       <c r="A305" s="58">
         <v>305.04743052169681</v>
       </c>
@@ -21522,7 +21522,7 @@
         <v>13.768261301200909</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15">
+    <row r="306" spans="1:13" ht="14.25">
       <c r="A306" s="58">
         <v>302.69922080692356</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>13.74820952796464</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15">
+    <row r="307" spans="1:13" ht="14.25">
       <c r="A307" s="58">
         <v>302.76916747927851</v>
       </c>
@@ -21598,7 +21598,7 @@
         <v>13.711835256242864</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15">
+    <row r="308" spans="1:13" ht="14.25">
       <c r="A308" s="58">
         <v>317.45796867381779</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>13.659268207690962</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15">
+    <row r="309" spans="1:13" ht="14.25">
       <c r="A309" s="58">
         <v>335.94387493905424</v>
       </c>
@@ -21674,7 +21674,7 @@
         <v>13.59069544616859</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15">
+    <row r="310" spans="1:13" ht="14.25">
       <c r="A310" s="58">
         <v>343.30826029985388</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>13.506360268717556</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15">
+    <row r="311" spans="1:13" ht="14.25">
       <c r="A311" s="58">
         <v>333.61564998781097</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>13.406560767456481</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15">
+    <row r="312" spans="1:13" ht="14.25">
       <c r="A312" s="58">
         <v>336.5733949902488</v>
       </c>
@@ -21788,7 +21788,7 @@
         <v>13.291648074288029</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15">
+    <row r="313" spans="1:13" ht="14.25">
       <c r="A313" s="58">
         <v>335.54417966845455</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>13.162024302882525</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15">
+    <row r="314" spans="1:13" ht="14.25">
       <c r="A314" s="58">
         <v>318.68703163091186</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>13.018140204816929</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15">
+    <row r="315" spans="1:13" ht="14.25">
       <c r="A315" s="58">
         <v>331.70710507069731</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>12.860492558984898</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15">
+    <row r="316" spans="1:13" ht="14.25">
       <c r="A316" s="58">
         <v>313.39106929546574</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>12.689621315430712</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15">
+    <row r="317" spans="1:13" ht="14.25">
       <c r="A317" s="58">
         <v>300.01127011214055</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>12.50610651657604</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15">
+    <row r="318" spans="1:13" ht="14.25">
       <c r="A318" s="58">
         <v>298.45245855680167</v>
       </c>
@@ -22016,7 +22016,7 @@
         <v>12.310565020388065</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15">
+    <row r="319" spans="1:13" ht="14.25">
       <c r="A319" s="58">
         <v>283.99348214285726</v>
       </c>
@@ -22054,7 +22054,7 @@
         <v>12.103647051365096</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15">
+    <row r="320" spans="1:13" ht="14.25">
       <c r="A320" s="58">
         <v>269.92420861774752</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>11.886032606281622</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15">
+    <row r="321" spans="1:13" ht="14.25">
       <c r="A321" s="58">
         <v>289.07960446123855</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>11.658427742430204</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15">
+    <row r="322" spans="1:13" ht="14.25">
       <c r="A322" s="58">
         <v>292.98662573135067</v>
       </c>
@@ -22168,7 +22168,7 @@
         <v>11.421560776618916</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15">
+    <row r="323" spans="1:13" ht="14.25">
       <c r="A323" s="58">
         <v>316.55865431496846</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>11.176178423428807</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15">
+    <row r="324" spans="1:13" ht="14.25">
       <c r="A324" s="58">
         <v>312.83149591662618</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>10.923041901208276</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15">
+    <row r="325" spans="1:13" ht="14.25">
       <c r="A325" s="58">
         <v>315.73927901023904</v>
       </c>
@@ -22282,7 +22282,7 @@
         <v>10.662923033985857</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15">
+    <row r="326" spans="1:13" ht="14.25">
       <c r="A326" s="58">
         <v>334.924651999025</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>10.396600376927921</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15">
+    <row r="327" spans="1:13" ht="14.25">
       <c r="A327" s="58">
         <v>326.03143222818147</v>
       </c>
@@ -22358,7 +22358,7 @@
         <v>10.12485539216458</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15">
+    <row r="328" spans="1:13" ht="14.25">
       <c r="A328" s="58">
         <v>334.98460628961499</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>9.8484687007697662</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15">
+    <row r="329" spans="1:13" ht="14.25">
       <c r="A329" s="58">
         <v>317.44797629205277</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>9.5682164354260681</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15">
+    <row r="330" spans="1:13" ht="14.25">
       <c r="A330" s="58">
         <v>315.6693323378841</v>
       </c>
@@ -22472,7 +22472,7 @@
         <v>9.2848667168505461</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15">
+    <row r="331" spans="1:13" ht="14.25">
       <c r="A331" s="58">
         <v>327.63021331058036</v>
       </c>
@@ -22510,7 +22510,7 @@
         <v>8.9991762754244284</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15">
+    <row r="332" spans="1:13" ht="14.25">
       <c r="A332" s="58">
         <v>359.40598732325708</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>8.711887237679532</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15">
+    <row r="333" spans="1:13" ht="14.25">
       <c r="A333" s="58">
         <v>374.91416382252572</v>
       </c>
@@ -22586,7 +22586,7 @@
         <v>8.4237240953708472</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15">
+    <row r="334" spans="1:13" ht="14.25">
       <c r="A334" s="58">
         <v>372.96564937835217</v>
       </c>
@@ -22624,7 +22624,7 @@
         <v>8.1353908728317297</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15">
+    <row r="335" spans="1:13" ht="14.25">
       <c r="A335" s="58">
         <v>367.30996129936631</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>7.8475685061908473</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="15">
+    <row r="336" spans="1:13" ht="14.25">
       <c r="A336" s="58">
         <v>370.02788913944431</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>7.5609124458528143</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15">
+    <row r="337" spans="1:13" ht="14.25">
       <c r="A337" s="58">
         <v>369.36839194295476</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>7.2760504914327209</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15">
+    <row r="338" spans="1:13" ht="14.25">
       <c r="A338" s="58">
         <v>372.61591601657739</v>
       </c>
@@ -22776,7 +22776,7 @@
         <v>6.9935808661125325</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15">
+    <row r="339" spans="1:13" ht="14.25">
       <c r="A339" s="58">
         <v>384.70669795221858</v>
       </c>
@@ -22814,7 +22814,7 @@
         <v>6.7140705351785135</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15">
+    <row r="340" spans="1:13" ht="14.25">
       <c r="A340" s="58">
         <v>377.68205357142875</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>6.4380537713264161</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15">
+    <row r="341" spans="1:13" ht="14.25">
       <c r="A341" s="58">
         <v>374.54444569722102</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>6.166030967205951</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15">
+    <row r="342" spans="1:13" ht="14.25">
       <c r="A342" s="58">
         <v>367.64970227937607</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>5.8984676936389473</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15">
+    <row r="343" spans="1:13" ht="14.25">
       <c r="A343" s="58">
         <v>356.25838706728439</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>5.6357940000040987</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="15">
+    <row r="344" spans="1:13" ht="14.25">
       <c r="A344" s="58">
         <v>361.4344408215506</v>
       </c>
@@ -23004,7 +23004,7 @@
         <v>5.3784039514523379</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15">
+    <row r="345" spans="1:13" ht="14.25">
       <c r="A345" s="58">
         <v>372.59593125304741</v>
       </c>
@@ -23042,7 +23042,7 @@
         <v>5.1266553959148702</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15">
+    <row r="346" spans="1:13" ht="14.25">
       <c r="A346" s="58">
         <v>382.64826730863007</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>4.8808699523031978</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="15">
+    <row r="347" spans="1:13" ht="14.25">
       <c r="A347" s="58">
         <v>352.98088584836677</v>
       </c>
@@ -23118,7 +23118,7 @@
         <v>4.6413332098874021</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15">
+    <row r="348" spans="1:13" ht="14.25">
       <c r="A348" s="58">
         <v>354.84946123842042</v>
       </c>
@@ -23156,7 +23156,7 @@
         <v>4.408295127583405</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15">
+    <row r="349" spans="1:13" ht="14.25">
       <c r="A349" s="58">
         <v>329.7485982447588</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>4.181970620787923</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15">
+    <row r="350" spans="1:13" ht="14.25">
       <c r="A350" s="58">
         <v>420.16966083617763</v>
       </c>
@@ -23232,7 +23232,7 @@
         <v>3.962540322474926</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="15">
+    <row r="351" spans="1:13" ht="14.25">
       <c r="A351" s="58">
         <v>437.37654223549504</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>3.7501515045111535</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15">
+    <row r="352" spans="1:13" ht="14.25">
       <c r="A352" s="58">
         <v>426.77462518283784</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>3.5449191445603208</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15">
+    <row r="353" spans="1:13" ht="14.25">
       <c r="A353" s="58">
         <v>415.68308142369591</v>
       </c>
@@ -23346,7 +23346,7 @@
         <v>3.3469271235234039</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15">
+    <row r="354" spans="1:13" ht="14.25">
       <c r="A354" s="58">
         <v>401.10419642857164</v>
       </c>
@@ -23384,7 +23384,7 @@
         <v>3.1562295382018863</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15">
+    <row r="355" spans="1:13" ht="14.25">
       <c r="A355" s="58">
         <v>390.7021270112142</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>2.9728521137660513</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15">
+    <row r="356" spans="1:13" ht="14.25">
       <c r="A356" s="58">
         <v>386.73515145051209</v>
       </c>
@@ -23460,7 +23460,7 @@
         <v>2.7967937006540704</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15">
+    <row r="357" spans="1:13" ht="14.25">
       <c r="A357" s="58">
         <v>381.9687853486106</v>
       </c>
@@ -23498,7 +23498,7 @@
         <v>2.6280278407110456</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15">
+    <row r="358" spans="1:13" ht="14.25">
       <c r="A358" s="58">
         <v>366.5305555216969</v>
       </c>
@@ -23536,7 +23536,7 @@
         <v>2.4665043876906498</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15">
+    <row r="359" spans="1:13" ht="14.25">
       <c r="A359" s="58">
         <v>366.82033459288169</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>2.3121511676746236</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15">
+    <row r="360" spans="1:13" ht="14.25">
       <c r="A360" s="58">
         <v>366.20080692345215</v>
       </c>
@@ -23612,7 +23612,7 @@
         <v>2.1648756655059174</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15">
+    <row r="361" spans="1:13" ht="14.25">
       <c r="A361" s="58">
         <v>368.23925280351062</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>2.0245667239674252</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15">
+    <row r="362" spans="1:13" ht="14.25">
       <c r="A362" s="58">
         <v>371.03711969770859</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>1.8910962431577654</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15">
+    <row r="363" spans="1:13" ht="14.25">
       <c r="A363" s="58">
         <v>353.76029162603618</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>1.7643208683057212</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15">
+    <row r="364" spans="1:13" ht="14.25">
       <c r="A364" s="58">
         <v>338.68178754266222</v>
       </c>
@@ -23764,7 +23764,7 @@
         <v>1.6440836551131739</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15">
+    <row r="365" spans="1:13" ht="14.25">
       <c r="A365" s="58">
         <v>328.67941339590459</v>
       </c>
@@ -23802,7 +23802,7 @@
         <v>1.5302157026100593</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15">
+    <row r="366" spans="1:13" ht="14.25">
       <c r="A366" s="58">
         <v>330.0084001706486</v>
       </c>
@@ -23840,7 +23840,7 @@
         <v>1.4225377444318932</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15">
+    <row r="367" spans="1:13" ht="14.25">
       <c r="A367" s="58">
         <v>333.54570331545602</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>1.3208616903788986</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15">
+    <row r="368" spans="1:13" ht="14.25">
       <c r="A368" s="58">
         <v>342.80864121160425</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>1.2249921110745188</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15">
+    <row r="369" spans="1:13" ht="14.25">
       <c r="A369" s="58">
         <v>347.02542631643115</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>1.1347276594994127</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15">
+    <row r="370" spans="1:13" ht="14.25">
       <c r="A370" s="58">
         <v>344.65723183812787</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>1.0498624241251573</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15">
+    <row r="371" spans="1:13" ht="14.25">
       <c r="A371" s="58">
         <v>342.39895355923954</v>
       </c>
@@ -24030,7 +24030,7 @@
         <v>0.97018720930063795</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15">
+    <row r="372" spans="1:13" ht="14.25">
       <c r="A372" s="58">
         <v>332.29665559483192</v>
       </c>
@@ -24068,7 +24068,7 @@
         <v>0.89549073944540258</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15">
+    <row r="373" spans="1:13" ht="14.25">
       <c r="A373" s="58">
         <v>316.64037086007539</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>0.82556078447075631</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="15">
+    <row r="374" spans="1:13" ht="14.25">
       <c r="A374" s="58">
         <v>327.84340113583863</v>
       </c>
@@ -24144,7 +24144,7 @@
         <v>0.7601852046747124</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="15">
+    <row r="375" spans="1:13" ht="14.25">
       <c r="A375" s="58">
         <v>337.19922944991185</v>
       </c>
@@ -24182,7 +24182,7 @@
         <v>0.69915291413576297</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15">
+    <row r="376" spans="1:13" ht="14.25">
       <c r="A376" s="58">
         <v>331.50785043281292</v>
       </c>
@@ -24220,7 +24220,7 @@
         <v>0.6422547623582433</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15">
+    <row r="377" spans="1:13" ht="14.25">
       <c r="A377" s="58">
         <v>329.41102658440803</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>0.58928433459536189</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15">
+    <row r="378" spans="1:13" ht="14.25">
       <c r="A378" s="58">
         <v>343.28001861028611</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>0.54003867189209032</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15">
+    <row r="379" spans="1:13" ht="14.25">
       <c r="A379" s="58">
         <v>326.89483796632214</v>
       </c>
@@ -24334,7 +24334,7 @@
         <v>0.49431891244728798</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15">
+    <row r="380" spans="1:13" ht="14.25">
       <c r="A380" s="58">
         <v>334.74295008463758</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>0.45193085639169822</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="15">
+    <row r="381" spans="1:13" ht="14.25">
       <c r="A381" s="58">
         <v>345.98591986227524</v>
       </c>
@@ -24410,7 +24410,7 @@
         <v>0.41268545651563876</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="15">
+    <row r="382" spans="1:13" ht="14.25">
       <c r="A382" s="58">
         <v>347.6034696881876</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>0.37639923785775209</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="15">
+    <row r="383" spans="1:13" ht="14.25">
       <c r="A383" s="58">
         <v>343.23009423294309</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>0.34289464938531145</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15">
+    <row r="384" spans="1:13" ht="14.25">
       <c r="A384" s="58">
         <v>331.4179865535956</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>0.31200035125889619</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15">
+    <row r="385" spans="1:13" ht="14.25">
       <c r="A385" s="58">
         <v>337.02948656694582</v>
       </c>
@@ -24562,7 +24562,7 @@
         <v>0.28355144138208321</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="15">
+    <row r="386" spans="1:13" ht="14.25">
       <c r="A386" s="58">
         <v>333.6146591566864</v>
       </c>
@@ -24600,7 +24600,7 @@
         <v>0.257389625092667</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="15">
+    <row r="387" spans="1:13" ht="14.25">
       <c r="A387" s="58">
         <v>334.82282908838636</v>
       </c>
@@ -24638,7 +24638,7 @@
         <v>0.23336333195890896</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="15">
+    <row r="388" spans="1:13" ht="14.25">
       <c r="A388" s="58">
         <v>338.37744475520606</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>0.21132778370565641</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="15">
+    <row r="389" spans="1:13" ht="14.25">
       <c r="A389" s="58">
         <v>328.48243316582875</v>
       </c>
@@ -24714,7 +24714,7 @@
         <v>0.19114501731438688</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="15">
+    <row r="390" spans="1:13" ht="14.25">
       <c r="A390" s="58">
         <v>348.63191186145286</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>0.17268386732198815</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="15">
+    <row r="391" spans="1:13" ht="14.25">
       <c r="A391" s="58">
         <v>339.33599280019121</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>0.15581991128914097</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="15.75" thickBot="1">
+    <row r="392" spans="1:13" ht="14.65" thickBot="1">
       <c r="A392" s="58">
         <v>342.25157643702079</v>
       </c>
@@ -31807,10 +31807,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31825,10 +31825,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31843,13 +31843,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="15">
+    <row r="2" spans="2:26" ht="13.9">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -31880,7 +31880,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="2:26" ht="15">
+    <row r="3" spans="2:26" ht="13.9">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -31911,7 +31911,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="2:26" ht="15">
+    <row r="4" spans="2:26" ht="13.9">
       <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
@@ -31942,7 +31942,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="2:26" ht="15">
+    <row r="5" spans="2:26" ht="13.9">
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
@@ -31973,7 +31973,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="2:26" ht="15">
+    <row r="6" spans="2:26" ht="13.9">
       <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
@@ -32004,7 +32004,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="2:26" ht="15">
+    <row r="7" spans="2:26" ht="13.9">
       <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
@@ -32035,7 +32035,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="2:26" ht="15">
+    <row r="8" spans="2:26" ht="13.9">
       <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
